--- a/BackTest/2020-01-23 BackTest BCD.xlsx
+++ b/BackTest/2020-01-23 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-17835.0960497</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-19483.2328497</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-19984.9913497</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-18771.7981497</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-18771.7981497</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-18771.7981497</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-18771.7981497</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-18771.7981497</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-19601.7981497</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-19601.7981497</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-19601.7981497</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-19601.7981497</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-19601.7981497</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-19601.7981497</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-18431.7981497</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-18431.7981497</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-18431.7981497</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-18431.7981497</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-18431.7981497</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-19917.1868497</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-26493.0072497</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-31819.1267497</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-31819.1267497</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-31819.1267497</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-31819.1267497</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-31819.1267497</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-31809.1267497</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-31474.5267497</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-30620.0826497</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-30695.9826497</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-30706.6172497</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-30706.6172497</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-30481.75194970001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-30385.60554970001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-30120.1156497</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-30120.1156497</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-31197.0122497</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-31845.98514970001</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-31845.98514970001</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-31845.98514970001</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-31820.1656497</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-32756.88144970001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-32651.47104970001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-32651.47104970001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-32526.39384970001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-32534.1146497</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-32468.9492497</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-31428.9492497</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-31709.2785497</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-31852.69424970001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-31852.69424970001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-33945.17454970001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-33857.13864970001</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-33519.43864970001</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-34339.43864970001</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-34339.43864970001</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-34339.43864970001</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-34710.82434970001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-34710.82434970001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-34710.82434970001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-32728.40780532001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-32968.68790532001</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-33009.09330532001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-33258.56420532001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-33258.56420532001</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-33258.56420532001</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-33208.54920532001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-33209.54920532001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-33209.54920532001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-33209.54920532001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-34049.37800532002</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-34049.37800532002</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-34451.36260532002</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-34451.36260532002</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-33216.25330532002</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-30918.93961980002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-30930.30951980002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-30856.90201980002</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-30884.19121980002</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-32348.93921980002</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-32096.13061980002</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-32910.86951980001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-32865.46951980001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-32865.46951980001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-32607.46591980001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-38342.42711980001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-38341.42711980001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-38712.05981980002</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-38711.33911980002</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-37273.55681980002</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-37279.16661980002</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-38250.66461980002</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-38736.36461980001</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-38736.36461980001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-38736.36461980001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-38736.36461980001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-39228.31621980001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-51875.94141980002</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-51766.40301980002</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-51766.40301980002</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-52193.76661980002</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-52193.76661980002</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-54783.77911980001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-54783.77911980001</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-54120.77911980001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-54065.77911980001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-54048.14161980002</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-51150.59289387002</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-51342.32699387002</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-51382.32699387002</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-52028.63519387002</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-59028.63519387002</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-58309.32004768002</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-60692.81354768002</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-60351.83194768002</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-60351.83194768002</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-60484.63674768002</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-60484.63674768002</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-60476.56292992002</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-60477.28592992001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-61031.62812992001</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-61110.80032992001</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-61110.80032992001</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-61110.80032992001</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-60440.80032992001</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-60576.16512992002</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-54077.77938900002</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-52844.37758900002</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-52479.78738900002</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-55451.37538900002</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-54451.37538900002</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-54509.91798900002</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-55661.57538900002</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-55522.50868900002</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-54470.57508900002</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-54457.38548900002</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-54457.38548900002</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-54601.41378900002</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-54331.71918900002</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-54335.71918900002</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-54287.09378900002</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-54287.09378900002</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-54296.95588900002</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-51366.33848900002</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-51356.33848900002</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-55807.13868900001</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-55807.13868900001</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-56549.36758900002</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-58153.38078900002</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-58143.75062222002</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-58143.75062222002</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-58143.75062222002</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-58193.75062222002</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-58193.75062222002</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-63823.32232222002</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-63120.79462222002</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-63090.11842222002</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-63090.11842222002</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-63956.79032222002</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-65510.11462222002</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-65510.11462222002</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-66212.25072222002</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-66930.58982222002</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-66574.37912222002</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-66575.37912222002</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-69506.78492222002</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-71353.80962222001</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-73009.03222222</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-73009.03222222</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-68349.45032222</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-68403.45032222</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-68490.00242222</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-68490.00242222</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-68682.11282222001</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-68682.11282222001</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-68676.50302222</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-67636.50302222</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-67737.02032222001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-67177.02032222001</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-67177.02032222001</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-67177.02032222001</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-67177.02032222001</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-67205.73752222001</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-67109.28722222001</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-67141.26982222001</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-67150.88452222002</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-67224.67752222002</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-67224.67752222002</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-67224.67752222002</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-67149.57752222002</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-71104.01682222002</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-71006.11902222001</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-71055.01902222</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-72199.72952222</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-72506.72952222</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-72506.72952222</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-73327.98882222001</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-73327.98882222001</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-73327.98882222001</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-73327.98882222001</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-73327.98882222001</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-73408.98882222001</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-73408.98882222001</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-73408.98882222001</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-75579.67602222001</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-75579.67602222001</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-74337.67602222001</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-74299.67602222001</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-80955.43842222</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-82143.61042222001</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-82364.94192222001</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-82364.94192222001</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-82364.94192222001</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-81403.80432222001</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-87013.06472222002</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-106431.34598779</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-106258.20413903</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-105858.20413903</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-105858.20413903</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-105851.7542116</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-120953.54803541</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-121885.7369695201</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-100374.6507909601</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-98156.05139096011</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-93941.98419096011</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-93941.98419096011</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-93941.98419096011</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-92177.73309096012</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-92177.73309096012</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-90415.80459096012</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-90415.80459096012</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-91805.80459096012</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-91377.29189096011</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-91915.22629096011</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-92504.20199096011</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-94822.30259096011</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-94822.30259096011</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-94822.30259096011</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-94821.50259096011</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-94821.50259096011</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-91956.49779096011</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-92923.71229096012</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-93720.94099096012</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-93720.14099096012</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-93747.71339096013</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-93774.70579096013</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-91888.57539096013</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-92712.20969096014</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-93062.50969096014</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-91522.48339096014</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-91534.55399096015</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-92122.03349096015</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-91922.03349096015</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-92404.12749096015</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-92444.12749096015</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-92682.03039096015</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-92615.78689096015</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-90852.27729096015</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-90852.27729096015</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-93151.99839096014</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-93067.00169096014</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-99987.40169096013</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-99804.89009096014</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-107150.5900909601</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-107150.5900909601</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-108150.5900909601</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-108150.5900909601</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-112843.1452909601</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-111122.8942909601</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-111122.8942909601</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-111122.8942909601</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-116535.1335909601</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-118321.6066909601</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-118321.6066909601</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-112554.5013909601</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-108472.7575909601</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-108556.6619909601</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-113482.9800909601</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-117250.9385909601</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-116759.3794909601</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-119670.9665909601</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -18007,14 +18007,10 @@
         <v>-164331.0944680402</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
-      </c>
-      <c r="I534" t="n">
-        <v>661.5</v>
-      </c>
-      <c r="J534" t="n">
-        <v>661.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
@@ -18047,726 +18043,608 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>661.5</v>
-      </c>
-      <c r="K535" t="inlineStr">
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
+      <c r="L535" t="n">
+        <v>1</v>
+      </c>
+      <c r="M535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="n">
+        <v>661.1</v>
+      </c>
+      <c r="C536" t="n">
+        <v>665</v>
+      </c>
+      <c r="D536" t="n">
+        <v>665</v>
+      </c>
+      <c r="E536" t="n">
+        <v>660.1</v>
+      </c>
+      <c r="F536" t="n">
+        <v>1690.2828</v>
+      </c>
+      <c r="G536" t="n">
+        <v>-157230.3468680402</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="n">
+        <v>1</v>
+      </c>
+      <c r="M536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="n">
+        <v>661.1</v>
+      </c>
+      <c r="C537" t="n">
+        <v>657.1</v>
+      </c>
+      <c r="D537" t="n">
+        <v>665</v>
+      </c>
+      <c r="E537" t="n">
+        <v>657.1</v>
+      </c>
+      <c r="F537" t="n">
+        <v>7393.6716</v>
+      </c>
+      <c r="G537" t="n">
+        <v>-164624.0184680402</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
+      <c r="L537" t="n">
+        <v>1</v>
+      </c>
+      <c r="M537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="n">
+        <v>658.2</v>
+      </c>
+      <c r="C538" t="n">
+        <v>657.1</v>
+      </c>
+      <c r="D538" t="n">
+        <v>659</v>
+      </c>
+      <c r="E538" t="n">
+        <v>657.1</v>
+      </c>
+      <c r="F538" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G538" t="n">
+        <v>-164624.0184680402</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
+      <c r="L538" t="n">
+        <v>1</v>
+      </c>
+      <c r="M538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="n">
+        <v>657</v>
+      </c>
+      <c r="C539" t="n">
+        <v>660</v>
+      </c>
+      <c r="D539" t="n">
+        <v>660</v>
+      </c>
+      <c r="E539" t="n">
+        <v>654.7</v>
+      </c>
+      <c r="F539" t="n">
+        <v>7726.0678</v>
+      </c>
+      <c r="G539" t="n">
+        <v>-156897.9506680402</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
+      <c r="L539" t="n">
+        <v>1</v>
+      </c>
+      <c r="M539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="n">
+        <v>660</v>
+      </c>
+      <c r="C540" t="n">
+        <v>654.7</v>
+      </c>
+      <c r="D540" t="n">
+        <v>660</v>
+      </c>
+      <c r="E540" t="n">
+        <v>654.2</v>
+      </c>
+      <c r="F540" t="n">
+        <v>10446.6898</v>
+      </c>
+      <c r="G540" t="n">
+        <v>-167344.6404680402</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
+      <c r="L540" t="n">
+        <v>1</v>
+      </c>
+      <c r="M540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="n">
+        <v>654.7</v>
+      </c>
+      <c r="C541" t="n">
+        <v>653.7</v>
+      </c>
+      <c r="D541" t="n">
+        <v>654.7</v>
+      </c>
+      <c r="E541" t="n">
+        <v>653</v>
+      </c>
+      <c r="F541" t="n">
+        <v>2988.35046673</v>
+      </c>
+      <c r="G541" t="n">
+        <v>-170332.9909347702</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
+      <c r="L541" t="n">
+        <v>1</v>
+      </c>
+      <c r="M541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="n">
+        <v>654</v>
+      </c>
+      <c r="C542" t="n">
+        <v>652.2</v>
+      </c>
+      <c r="D542" t="n">
+        <v>654</v>
+      </c>
+      <c r="E542" t="n">
+        <v>651.1</v>
+      </c>
+      <c r="F542" t="n">
+        <v>3989.7511</v>
+      </c>
+      <c r="G542" t="n">
+        <v>-174322.7420347702</v>
+      </c>
+      <c r="H542" t="n">
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
+      <c r="L542" t="n">
+        <v>1</v>
+      </c>
+      <c r="M542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="n">
+        <v>654.4</v>
+      </c>
+      <c r="C543" t="n">
+        <v>652.9</v>
+      </c>
+      <c r="D543" t="n">
+        <v>654.4</v>
+      </c>
+      <c r="E543" t="n">
+        <v>652.9</v>
+      </c>
+      <c r="F543" t="n">
+        <v>1280</v>
+      </c>
+      <c r="G543" t="n">
+        <v>-173042.7420347702</v>
+      </c>
+      <c r="H543" t="n">
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
+      <c r="L543" t="n">
+        <v>1</v>
+      </c>
+      <c r="M543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="n">
+        <v>651</v>
+      </c>
+      <c r="C544" t="n">
+        <v>652</v>
+      </c>
+      <c r="D544" t="n">
+        <v>652.8</v>
+      </c>
+      <c r="E544" t="n">
+        <v>649.9</v>
+      </c>
+      <c r="F544" t="n">
+        <v>6357.1463</v>
+      </c>
+      <c r="G544" t="n">
+        <v>-179399.8883347702</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
+      <c r="L544" t="n">
+        <v>1</v>
+      </c>
+      <c r="M544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="n">
+        <v>652</v>
+      </c>
+      <c r="C545" t="n">
+        <v>642</v>
+      </c>
+      <c r="D545" t="n">
+        <v>652</v>
+      </c>
+      <c r="E545" t="n">
+        <v>642</v>
+      </c>
+      <c r="F545" t="n">
+        <v>20409.1009</v>
+      </c>
+      <c r="G545" t="n">
+        <v>-199808.9892347702</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
+      <c r="L545" t="n">
+        <v>1</v>
+      </c>
+      <c r="M545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="n">
+        <v>642</v>
+      </c>
+      <c r="C546" t="n">
+        <v>648.8</v>
+      </c>
+      <c r="D546" t="n">
+        <v>649</v>
+      </c>
+      <c r="E546" t="n">
+        <v>640.3</v>
+      </c>
+      <c r="F546" t="n">
+        <v>4591.095</v>
+      </c>
+      <c r="G546" t="n">
+        <v>-195217.8942347702</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="n">
+        <v>1</v>
+      </c>
+      <c r="M546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="n">
+        <v>644</v>
+      </c>
+      <c r="C547" t="n">
+        <v>646.5</v>
+      </c>
+      <c r="D547" t="n">
+        <v>649.9</v>
+      </c>
+      <c r="E547" t="n">
+        <v>636.2</v>
+      </c>
+      <c r="F547" t="n">
+        <v>19600.9062</v>
+      </c>
+      <c r="G547" t="n">
+        <v>-214818.8004347701</v>
+      </c>
+      <c r="H547" t="n">
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
+      <c r="L547" t="n">
+        <v>1</v>
+      </c>
+      <c r="M547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="n">
+        <v>643.9</v>
+      </c>
+      <c r="C548" t="n">
+        <v>643.9</v>
+      </c>
+      <c r="D548" t="n">
+        <v>643.9</v>
+      </c>
+      <c r="E548" t="n">
+        <v>643.9</v>
+      </c>
+      <c r="F548" t="n">
+        <v>520</v>
+      </c>
+      <c r="G548" t="n">
+        <v>-215338.8004347701</v>
+      </c>
+      <c r="H548" t="n">
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
+      <c r="L548" t="n">
+        <v>1</v>
+      </c>
+      <c r="M548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="n">
+        <v>643.9</v>
+      </c>
+      <c r="C549" t="n">
+        <v>642.8</v>
+      </c>
+      <c r="D549" t="n">
+        <v>643.9</v>
+      </c>
+      <c r="E549" t="n">
+        <v>640.6</v>
+      </c>
+      <c r="F549" t="n">
+        <v>4998.1344</v>
+      </c>
+      <c r="G549" t="n">
+        <v>-220336.9348347702</v>
+      </c>
+      <c r="H549" t="n">
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
+      <c r="L549" t="n">
+        <v>1</v>
+      </c>
+      <c r="M549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="n">
+        <v>643.8</v>
+      </c>
+      <c r="C550" t="n">
+        <v>643.8</v>
+      </c>
+      <c r="D550" t="n">
+        <v>643.8</v>
+      </c>
+      <c r="E550" t="n">
+        <v>640.8</v>
+      </c>
+      <c r="F550" t="n">
+        <v>1993.0268</v>
+      </c>
+      <c r="G550" t="n">
+        <v>-218343.9080347702</v>
+      </c>
+      <c r="H550" t="n">
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
+      <c r="L550" t="n">
+        <v>1</v>
+      </c>
+      <c r="M550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="n">
+        <v>643.8</v>
+      </c>
+      <c r="C551" t="n">
+        <v>643.8</v>
+      </c>
+      <c r="D551" t="n">
+        <v>643.8</v>
+      </c>
+      <c r="E551" t="n">
+        <v>643.8</v>
+      </c>
+      <c r="F551" t="n">
+        <v>567.9854</v>
+      </c>
+      <c r="G551" t="n">
+        <v>-218343.9080347702</v>
+      </c>
+      <c r="H551" t="n">
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="n">
+        <v>1</v>
+      </c>
+      <c r="M551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="n">
+        <v>644</v>
+      </c>
+      <c r="C552" t="n">
+        <v>645</v>
+      </c>
+      <c r="D552" t="n">
+        <v>645</v>
+      </c>
+      <c r="E552" t="n">
+        <v>644</v>
+      </c>
+      <c r="F552" t="n">
+        <v>5178.1488</v>
+      </c>
+      <c r="G552" t="n">
+        <v>-213165.7592347702</v>
+      </c>
+      <c r="H552" t="n">
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
+      <c r="L552" t="n">
+        <v>1</v>
+      </c>
+      <c r="M552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="n">
+        <v>646</v>
+      </c>
+      <c r="C553" t="n">
+        <v>645</v>
+      </c>
+      <c r="D553" t="n">
+        <v>646</v>
+      </c>
+      <c r="E553" t="n">
+        <v>645</v>
+      </c>
+      <c r="F553" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G553" t="n">
+        <v>-213165.7592347702</v>
+      </c>
+      <c r="H553" t="n">
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>645</v>
+      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L535" t="n">
-        <v>1</v>
-      </c>
-      <c r="M535" t="inlineStr"/>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="B536" t="n">
-        <v>661.1</v>
-      </c>
-      <c r="C536" t="n">
-        <v>665</v>
-      </c>
-      <c r="D536" t="n">
-        <v>665</v>
-      </c>
-      <c r="E536" t="n">
-        <v>660.1</v>
-      </c>
-      <c r="F536" t="n">
-        <v>1690.2828</v>
-      </c>
-      <c r="G536" t="n">
-        <v>-157230.3468680402</v>
-      </c>
-      <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>661.5</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L536" t="n">
-        <v>1</v>
-      </c>
-      <c r="M536" t="inlineStr"/>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>535</v>
-      </c>
-      <c r="B537" t="n">
-        <v>661.1</v>
-      </c>
-      <c r="C537" t="n">
-        <v>657.1</v>
-      </c>
-      <c r="D537" t="n">
-        <v>665</v>
-      </c>
-      <c r="E537" t="n">
-        <v>657.1</v>
-      </c>
-      <c r="F537" t="n">
-        <v>7393.6716</v>
-      </c>
-      <c r="G537" t="n">
-        <v>-164624.0184680402</v>
-      </c>
-      <c r="H537" t="n">
-        <v>2</v>
-      </c>
-      <c r="I537" t="n">
-        <v>665</v>
-      </c>
-      <c r="J537" t="n">
-        <v>661.5</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L537" t="n">
-        <v>1</v>
-      </c>
-      <c r="M537" t="inlineStr"/>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>536</v>
-      </c>
-      <c r="B538" t="n">
-        <v>658.2</v>
-      </c>
-      <c r="C538" t="n">
-        <v>657.1</v>
-      </c>
-      <c r="D538" t="n">
-        <v>659</v>
-      </c>
-      <c r="E538" t="n">
-        <v>657.1</v>
-      </c>
-      <c r="F538" t="n">
-        <v>7500</v>
-      </c>
-      <c r="G538" t="n">
-        <v>-164624.0184680402</v>
-      </c>
-      <c r="H538" t="n">
-        <v>2</v>
-      </c>
-      <c r="I538" t="n">
-        <v>657.1</v>
-      </c>
-      <c r="J538" t="n">
-        <v>661.5</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L538" t="n">
-        <v>1</v>
-      </c>
-      <c r="M538" t="inlineStr"/>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
-        <v>537</v>
-      </c>
-      <c r="B539" t="n">
-        <v>657</v>
-      </c>
-      <c r="C539" t="n">
-        <v>660</v>
-      </c>
-      <c r="D539" t="n">
-        <v>660</v>
-      </c>
-      <c r="E539" t="n">
-        <v>654.7</v>
-      </c>
-      <c r="F539" t="n">
-        <v>7726.0678</v>
-      </c>
-      <c r="G539" t="n">
-        <v>-156897.9506680402</v>
-      </c>
-      <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>661.5</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L539" t="n">
-        <v>1</v>
-      </c>
-      <c r="M539" t="inlineStr"/>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
-        <v>538</v>
-      </c>
-      <c r="B540" t="n">
-        <v>660</v>
-      </c>
-      <c r="C540" t="n">
-        <v>654.7</v>
-      </c>
-      <c r="D540" t="n">
-        <v>660</v>
-      </c>
-      <c r="E540" t="n">
-        <v>654.2</v>
-      </c>
-      <c r="F540" t="n">
-        <v>10446.6898</v>
-      </c>
-      <c r="G540" t="n">
-        <v>-167344.6404680402</v>
-      </c>
-      <c r="H540" t="n">
-        <v>2</v>
-      </c>
-      <c r="I540" t="n">
-        <v>660</v>
-      </c>
-      <c r="J540" t="n">
-        <v>661.5</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L540" t="n">
-        <v>1</v>
-      </c>
-      <c r="M540" t="inlineStr"/>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
-        <v>539</v>
-      </c>
-      <c r="B541" t="n">
-        <v>654.7</v>
-      </c>
-      <c r="C541" t="n">
-        <v>653.7</v>
-      </c>
-      <c r="D541" t="n">
-        <v>654.7</v>
-      </c>
-      <c r="E541" t="n">
-        <v>653</v>
-      </c>
-      <c r="F541" t="n">
-        <v>2988.35046673</v>
-      </c>
-      <c r="G541" t="n">
-        <v>-170332.9909347702</v>
-      </c>
-      <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>661.5</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L541" t="n">
-        <v>1</v>
-      </c>
-      <c r="M541" t="inlineStr"/>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
-        <v>540</v>
-      </c>
-      <c r="B542" t="n">
-        <v>654</v>
-      </c>
-      <c r="C542" t="n">
-        <v>652.2</v>
-      </c>
-      <c r="D542" t="n">
-        <v>654</v>
-      </c>
-      <c r="E542" t="n">
-        <v>651.1</v>
-      </c>
-      <c r="F542" t="n">
-        <v>3989.7511</v>
-      </c>
-      <c r="G542" t="n">
-        <v>-174322.7420347702</v>
-      </c>
-      <c r="H542" t="n">
-        <v>2</v>
-      </c>
-      <c r="I542" t="n">
-        <v>653.7</v>
-      </c>
-      <c r="J542" t="n">
-        <v>661.5</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L542" t="n">
-        <v>1</v>
-      </c>
-      <c r="M542" t="inlineStr"/>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="B543" t="n">
-        <v>654.4</v>
-      </c>
-      <c r="C543" t="n">
-        <v>652.9</v>
-      </c>
-      <c r="D543" t="n">
-        <v>654.4</v>
-      </c>
-      <c r="E543" t="n">
-        <v>652.9</v>
-      </c>
-      <c r="F543" t="n">
-        <v>1280</v>
-      </c>
-      <c r="G543" t="n">
-        <v>-173042.7420347702</v>
-      </c>
-      <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>661.5</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L543" t="n">
-        <v>1</v>
-      </c>
-      <c r="M543" t="inlineStr"/>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
-        <v>542</v>
-      </c>
-      <c r="B544" t="n">
-        <v>651</v>
-      </c>
-      <c r="C544" t="n">
-        <v>652</v>
-      </c>
-      <c r="D544" t="n">
-        <v>652.8</v>
-      </c>
-      <c r="E544" t="n">
-        <v>649.9</v>
-      </c>
-      <c r="F544" t="n">
-        <v>6357.1463</v>
-      </c>
-      <c r="G544" t="n">
-        <v>-179399.8883347702</v>
-      </c>
-      <c r="H544" t="n">
-        <v>2</v>
-      </c>
-      <c r="I544" t="n">
-        <v>652.9</v>
-      </c>
-      <c r="J544" t="n">
-        <v>661.5</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L544" t="n">
-        <v>1</v>
-      </c>
-      <c r="M544" t="inlineStr"/>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
-        <v>543</v>
-      </c>
-      <c r="B545" t="n">
-        <v>652</v>
-      </c>
-      <c r="C545" t="n">
-        <v>642</v>
-      </c>
-      <c r="D545" t="n">
-        <v>652</v>
-      </c>
-      <c r="E545" t="n">
-        <v>642</v>
-      </c>
-      <c r="F545" t="n">
-        <v>20409.1009</v>
-      </c>
-      <c r="G545" t="n">
-        <v>-199808.9892347702</v>
-      </c>
-      <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>661.5</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L545" t="n">
-        <v>1</v>
-      </c>
-      <c r="M545" t="inlineStr"/>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
-        <v>544</v>
-      </c>
-      <c r="B546" t="n">
-        <v>642</v>
-      </c>
-      <c r="C546" t="n">
-        <v>648.8</v>
-      </c>
-      <c r="D546" t="n">
-        <v>649</v>
-      </c>
-      <c r="E546" t="n">
-        <v>640.3</v>
-      </c>
-      <c r="F546" t="n">
-        <v>4591.095</v>
-      </c>
-      <c r="G546" t="n">
-        <v>-195217.8942347702</v>
-      </c>
-      <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>661.5</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L546" t="n">
-        <v>1</v>
-      </c>
-      <c r="M546" t="inlineStr"/>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
-        <v>545</v>
-      </c>
-      <c r="B547" t="n">
-        <v>644</v>
-      </c>
-      <c r="C547" t="n">
-        <v>646.5</v>
-      </c>
-      <c r="D547" t="n">
-        <v>649.9</v>
-      </c>
-      <c r="E547" t="n">
-        <v>636.2</v>
-      </c>
-      <c r="F547" t="n">
-        <v>19600.9062</v>
-      </c>
-      <c r="G547" t="n">
-        <v>-214818.8004347701</v>
-      </c>
-      <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>661.5</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L547" t="n">
-        <v>1</v>
-      </c>
-      <c r="M547" t="inlineStr"/>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
-        <v>546</v>
-      </c>
-      <c r="B548" t="n">
-        <v>643.9</v>
-      </c>
-      <c r="C548" t="n">
-        <v>643.9</v>
-      </c>
-      <c r="D548" t="n">
-        <v>643.9</v>
-      </c>
-      <c r="E548" t="n">
-        <v>643.9</v>
-      </c>
-      <c r="F548" t="n">
-        <v>520</v>
-      </c>
-      <c r="G548" t="n">
-        <v>-215338.8004347701</v>
-      </c>
-      <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>661.5</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L548" t="n">
-        <v>1</v>
-      </c>
-      <c r="M548" t="inlineStr"/>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
-        <v>547</v>
-      </c>
-      <c r="B549" t="n">
-        <v>643.9</v>
-      </c>
-      <c r="C549" t="n">
-        <v>642.8</v>
-      </c>
-      <c r="D549" t="n">
-        <v>643.9</v>
-      </c>
-      <c r="E549" t="n">
-        <v>640.6</v>
-      </c>
-      <c r="F549" t="n">
-        <v>4998.1344</v>
-      </c>
-      <c r="G549" t="n">
-        <v>-220336.9348347702</v>
-      </c>
-      <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>661.5</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L549" t="n">
-        <v>1</v>
-      </c>
-      <c r="M549" t="inlineStr"/>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="B550" t="n">
-        <v>643.8</v>
-      </c>
-      <c r="C550" t="n">
-        <v>643.8</v>
-      </c>
-      <c r="D550" t="n">
-        <v>643.8</v>
-      </c>
-      <c r="E550" t="n">
-        <v>640.8</v>
-      </c>
-      <c r="F550" t="n">
-        <v>1993.0268</v>
-      </c>
-      <c r="G550" t="n">
-        <v>-218343.9080347702</v>
-      </c>
-      <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>661.5</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L550" t="n">
-        <v>1</v>
-      </c>
-      <c r="M550" t="inlineStr"/>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="B551" t="n">
-        <v>643.8</v>
-      </c>
-      <c r="C551" t="n">
-        <v>643.8</v>
-      </c>
-      <c r="D551" t="n">
-        <v>643.8</v>
-      </c>
-      <c r="E551" t="n">
-        <v>643.8</v>
-      </c>
-      <c r="F551" t="n">
-        <v>567.9854</v>
-      </c>
-      <c r="G551" t="n">
-        <v>-218343.9080347702</v>
-      </c>
-      <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>661.5</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L551" t="n">
-        <v>1</v>
-      </c>
-      <c r="M551" t="inlineStr"/>
-    </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="B552" t="n">
-        <v>644</v>
-      </c>
-      <c r="C552" t="n">
-        <v>645</v>
-      </c>
-      <c r="D552" t="n">
-        <v>645</v>
-      </c>
-      <c r="E552" t="n">
-        <v>644</v>
-      </c>
-      <c r="F552" t="n">
-        <v>5178.1488</v>
-      </c>
-      <c r="G552" t="n">
-        <v>-213165.7592347702</v>
-      </c>
-      <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>661.5</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L552" t="n">
-        <v>1</v>
-      </c>
-      <c r="M552" t="inlineStr"/>
-    </row>
-    <row r="553">
-      <c r="A553" s="1" t="n">
-        <v>551</v>
-      </c>
-      <c r="B553" t="n">
-        <v>646</v>
-      </c>
-      <c r="C553" t="n">
-        <v>645</v>
-      </c>
-      <c r="D553" t="n">
-        <v>646</v>
-      </c>
-      <c r="E553" t="n">
-        <v>645</v>
-      </c>
-      <c r="F553" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G553" t="n">
-        <v>-213165.7592347702</v>
-      </c>
-      <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>661.5</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18795,14 +18673,12 @@
         <v>-213165.7592347702</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I554" t="n">
         <v>645</v>
       </c>
-      <c r="J554" t="n">
-        <v>661.5</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18836,14 +18712,12 @@
         <v>-216189.7592347702</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I555" t="n">
         <v>645</v>
       </c>
-      <c r="J555" t="n">
-        <v>661.5</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18877,14 +18751,12 @@
         <v>-201254.7349347702</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I556" t="n">
         <v>642.9</v>
       </c>
-      <c r="J556" t="n">
-        <v>661.5</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18918,14 +18790,10 @@
         <v>-199786.1291347702</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
-      </c>
-      <c r="I557" t="n">
-        <v>650</v>
-      </c>
-      <c r="J557" t="n">
-        <v>661.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18959,14 +18827,10 @@
         <v>-207925.7101347702</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
-      </c>
-      <c r="I558" t="n">
-        <v>652.7</v>
-      </c>
-      <c r="J558" t="n">
-        <v>661.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19003,9 +18867,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>661.5</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19042,9 +18904,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>661.5</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19081,9 +18941,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>661.5</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19120,9 +18978,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>661.5</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19159,9 +19015,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>661.5</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19198,9 +19052,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>661.5</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19237,9 +19089,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>661.5</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19276,9 +19126,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>661.5</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19315,9 +19163,7 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>661.5</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19354,9 +19200,7 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>661.5</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19368,6 +19212,6 @@
       <c r="M568" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest BCD.xlsx
+++ b/BackTest/2020-01-23 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-17835.0960497</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-19483.2328497</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-19984.9913497</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-18771.7981497</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-18771.7981497</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-18771.7981497</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-18771.7981497</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-18771.7981497</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-19601.7981497</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-19601.7981497</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-19601.7981497</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-19601.7981497</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-19601.7981497</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-19601.7981497</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-18431.7981497</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-18431.7981497</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-18431.7981497</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-18431.7981497</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-18431.7981497</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-19917.1868497</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-26493.0072497</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-31819.1267497</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-31819.1267497</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-31819.1267497</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-31819.1267497</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-31819.1267497</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-31809.1267497</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-31474.5267497</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-30620.0826497</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-30706.6172497</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-30481.75194970001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-30385.60554970001</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-31197.0122497</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-31845.98514970001</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-31845.98514970001</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-31845.98514970001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-31820.1656497</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-32756.88144970001</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-32651.47104970001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-32651.47104970001</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-32526.39384970001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-32534.1146497</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-32468.9492497</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-31428.9492497</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-31709.2785497</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-31852.69424970001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-31852.69424970001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-33945.17454970001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-33857.13864970001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-33519.43864970001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-34339.43864970001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-34339.43864970001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-34339.43864970001</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-34710.82434970001</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-34710.82434970001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-32728.40780532001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-33009.09330532001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-33258.56420532001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-33258.56420532001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-33258.56420532001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-33208.54920532001</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-33209.54920532001</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-33209.54920532001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-33209.54920532001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-34049.37800532002</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-34049.37800532002</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-34451.36260532002</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-34451.36260532002</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-33216.25330532002</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-30918.93961980002</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-30930.30951980002</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-30856.90201980002</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-30884.19121980002</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-32348.93921980002</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-32096.13061980002</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-32910.86951980001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-32865.46951980001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-32865.46951980001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-32607.46591980001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-38342.42711980001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-38341.42711980001</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-38712.05981980002</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-38711.33911980002</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-37273.55681980002</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-37279.16661980002</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-38250.66461980002</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-38736.36461980001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-38736.36461980001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-38736.36461980001</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-38736.36461980001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-39228.31621980001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-51875.94141980002</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-51766.40301980002</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-51766.40301980002</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-52193.76661980002</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-52193.76661980002</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-54783.77911980001</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-54783.77911980001</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-54120.77911980001</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-54065.77911980001</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-54048.14161980002</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-51150.59289387002</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-51342.32699387002</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-51382.32699387002</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-52028.63519387002</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-59028.63519387002</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-58309.32004768002</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-60692.81354768002</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-60351.83194768002</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-60351.83194768002</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-60484.63674768002</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-60484.63674768002</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-60476.56292992002</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-60477.28592992001</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-61031.62812992001</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-61110.80032992001</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-61110.80032992001</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-61110.80032992001</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-60440.80032992001</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-60576.16512992002</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-54077.77938900002</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-52844.37758900002</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-52479.78738900002</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-55451.37538900002</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-54451.37538900002</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-54509.91798900002</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-55661.57538900002</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-55522.50868900002</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-54470.57508900002</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-54457.38548900002</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-54457.38548900002</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-54601.41378900002</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-54331.71918900002</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-54335.71918900002</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-54287.09378900002</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-54287.09378900002</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-54296.95588900002</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-51366.33848900002</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-51356.33848900002</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-55807.13868900001</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-55807.13868900001</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-56549.36758900002</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-58153.38078900002</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-58143.75062222002</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-58143.75062222002</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-58143.75062222002</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-58193.75062222002</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-58193.75062222002</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-63823.32232222002</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-63120.79462222002</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-63090.11842222002</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-63090.11842222002</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-63956.79032222002</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-65510.11462222002</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-65510.11462222002</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-66212.25072222002</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-66930.58982222002</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-66574.37912222002</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-66575.37912222002</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-69506.78492222002</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-71353.80962222001</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-73009.03222222</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-73009.03222222</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-68349.45032222</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-68403.45032222</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-68490.00242222</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-68490.00242222</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-68682.11282222001</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-68682.11282222001</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-68676.50302222</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-67636.50302222</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-67737.02032222001</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-67177.02032222001</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-67177.02032222001</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-67177.02032222001</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-67177.02032222001</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-67205.73752222001</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-67109.28722222001</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-67141.26982222001</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-67150.88452222002</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-67224.67752222002</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-67224.67752222002</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-67224.67752222002</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-67149.57752222002</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-71104.01682222002</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-71006.11902222001</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-71055.01902222</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-72199.72952222</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-72506.72952222</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-72506.72952222</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-73327.98882222001</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-73327.98882222001</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-73327.98882222001</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-73327.98882222001</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-73327.98882222001</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-73408.98882222001</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-73408.98882222001</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-73408.98882222001</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-75579.67602222001</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-75579.67602222001</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-74299.67602222001</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-80955.43842222</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-82143.61042222001</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-82364.94192222001</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-82364.94192222001</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-82364.94192222001</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-81403.80432222001</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-86571.16502222001</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-86071.16512222002</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-87013.06472222002</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-89316.31942222003</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-89345.23372222003</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-89345.23372222003</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-103201.28722222</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-103001.28722222</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-107384.26587348</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-106749.38938779</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-120953.54803541</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-120925.96113541</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-124703.0482354101</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-122096.3443354101</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-121087.8147354101</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-121375.0928695201</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-121377.9991695201</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-121377.9991695201</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-121869.7369695201</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-121885.7369695201</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-121740.0493238401</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-122372.4094238401</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-120630.3933238401</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-120630.3933238401</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-120630.3933238401</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-98156.05139096011</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-93941.98419096011</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-93941.98419096011</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-93941.98419096011</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-92177.73309096012</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-92177.73309096012</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-90415.80459096012</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-90415.80459096012</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-91805.80459096012</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-91377.29189096011</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-91915.22629096011</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-92504.20199096011</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-94822.30259096011</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-94822.30259096011</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-94822.30259096011</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-94821.50259096011</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-94821.50259096011</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-91956.49779096011</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-92923.71229096012</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-93720.94099096012</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-93720.14099096012</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-93747.71339096013</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-93774.70579096013</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-91888.57539096013</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-92712.20969096014</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-93062.50969096014</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-91522.48339096014</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-91534.55399096015</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-92122.03349096015</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-91922.03349096015</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-92404.12749096015</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-92444.12749096015</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-92682.03039096015</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-92615.78689096015</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-90852.27729096015</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-90852.27729096015</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-93151.99839096014</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-93067.00169096014</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-99987.40169096013</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-99804.89009096014</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-107150.5900909601</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-107150.5900909601</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-108150.5900909601</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-108150.5900909601</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-112843.1452909601</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-111122.8942909601</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-111122.8942909601</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-111122.8942909601</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-116535.1335909601</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-118321.6066909601</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-118321.6066909601</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-112554.5013909601</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-108472.7575909601</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-108556.6619909601</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-113482.9800909601</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-117250.9385909601</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-116759.3794909601</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-119670.9665909601</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-133259.5186909602</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-133259.5186909602</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-133259.5186909602</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-135905.1283909602</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-143217.3520909602</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-143217.3520909602</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-144428.1860909601</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-144186.3992909601</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-137734.7814909602</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-138530.1955909602</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-138530.1955909602</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-138972.1953909601</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-138964.4953909601</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-138440.3953909601</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-137829.6203909601</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-136734.8151909601</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-136734.8151909601</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-135639.8494909601</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-134392.8494909601</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-132209.4562909601</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-132699.8021511501</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-132837.5069511501</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-132885.8572511501</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-133088.4814511501</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-133088.4814511501</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-136195.2201511501</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-136261.9588511501</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-136410.3588511501</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-136410.3588511501</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-136410.3588511501</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-137090.3564511501</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-138081.6306511501</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-136640.4069511501</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-137007.8061511501</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-141304.2545511501</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-141036.1741511501</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-145630.8392511501</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-146515.3154511501</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-146515.3154511501</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-146515.3154511501</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-146237.3610511501</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-146237.3610511501</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-145837.3610511501</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-145889.2655511501</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-146182.5064511501</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-143888.0545511501</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-143888.0545511501</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-143888.0545511501</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-143888.0545511501</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-143888.0545511501</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-144065.6748680401</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-160974.4653680402</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18271,11 +18271,17 @@
         <v>-174322.7420347702</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>653.7</v>
+      </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18304,11 +18310,17 @@
         <v>-173042.7420347702</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>652.2</v>
+      </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18337,11 +18349,17 @@
         <v>-179399.8883347702</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>652.9</v>
+      </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18370,11 +18388,17 @@
         <v>-199808.9892347702</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>652</v>
+      </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18407,7 +18431,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18436,11 +18464,17 @@
         <v>-214818.8004347701</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>648.8</v>
+      </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18469,11 +18503,17 @@
         <v>-215338.8004347701</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>646.5</v>
+      </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18502,11 +18542,17 @@
         <v>-220336.9348347702</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>643.9</v>
+      </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18535,11 +18581,17 @@
         <v>-218343.9080347702</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>642.8</v>
+      </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18568,11 +18620,17 @@
         <v>-218343.9080347702</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>643.8</v>
+      </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18601,11 +18659,17 @@
         <v>-213165.7592347702</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>643.8</v>
+      </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18642,7 +18706,7 @@
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L553" t="n">
@@ -19212,6 +19276,6 @@
       <c r="M568" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest BCD.xlsx
+++ b/BackTest/2020-01-23 BackTest BCD.xlsx
@@ -2497,7 +2497,7 @@
         <v>-31428.9492497</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-31709.2785497</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-31852.69424970001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-31852.69424970001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-33945.17454970001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-33857.13864970001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-33519.43864970001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-34339.43864970001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-34339.43864970001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-34339.43864970001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-34710.82434970001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-34710.82434970001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-34710.82434970001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-32728.40780532001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-32968.68790532001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-32968.68790532001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-32959.68790532001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-33009.09330532001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-32229.56420532001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-33258.56420532001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-33258.56420532001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-33258.56420532001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-33208.54920532001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-33209.54920532001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-33209.54920532001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-34451.36260532002</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-37273.55681980002</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-37279.16661980002</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-75579.67602222001</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-75579.67602222001</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-74337.67602222001</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-86571.16502222001</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-86071.16512222002</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-89316.31942222003</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-89345.23372222003</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-89345.23372222003</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-103201.28722222</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-103001.28722222</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-107384.26587348</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-106749.38938779</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-120953.54803541</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-120925.96113541</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-124703.0482354101</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-122096.3443354101</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-121087.8147354101</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-121375.0928695201</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-121377.9991695201</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-121377.9991695201</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-121885.7369695201</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-121869.7369695201</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-121885.7369695201</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-121740.0493238401</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-122372.4094238401</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-120630.3933238401</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-120630.3933238401</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-120630.3933238401</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-92504.20199096011</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-94822.30259096011</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-91956.49779096011</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-92923.71229096012</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-93720.94099096012</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-133259.5186909602</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-133259.5186909602</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-133259.5186909602</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-135905.1283909602</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-143217.3520909602</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-143217.3520909602</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-144428.1860909601</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-144186.3992909601</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-137734.7814909602</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-138530.1955909602</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-138530.1955909602</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-138972.1953909601</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-138964.4953909601</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-138440.3953909601</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-137829.6203909601</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-136734.8151909601</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-136734.8151909601</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-135639.8494909601</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-134392.8494909601</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-132209.4562909601</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-132699.8021511501</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-132837.5069511501</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-132885.8572511501</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-133088.4814511501</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-133088.4814511501</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-136195.2201511501</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-136261.9588511501</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-136410.3588511501</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-136410.3588511501</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-136410.3588511501</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-137090.3564511501</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-138081.6306511501</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-136640.4069511501</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-137007.8061511501</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-141304.2545511501</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-141036.1741511501</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-145630.8392511501</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-146515.3154511501</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-146515.3154511501</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-146515.3154511501</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-146237.3610511501</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-146237.3610511501</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-145837.3610511501</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-145889.2655511501</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-146182.5064511501</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-143888.0545511501</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-143888.0545511501</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-143888.0545511501</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-143888.0545511501</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-143888.0545511501</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-144065.6748680401</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-160974.4653680402</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18271,522 +18271,468 @@
         <v>-174322.7420347702</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
-      </c>
-      <c r="I542" t="n">
-        <v>653.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
+      <c r="K542" t="inlineStr"/>
+      <c r="L542" t="n">
+        <v>1</v>
+      </c>
+      <c r="M542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="n">
+        <v>654.4</v>
+      </c>
+      <c r="C543" t="n">
+        <v>652.9</v>
+      </c>
+      <c r="D543" t="n">
+        <v>654.4</v>
+      </c>
+      <c r="E543" t="n">
+        <v>652.9</v>
+      </c>
+      <c r="F543" t="n">
+        <v>1280</v>
+      </c>
+      <c r="G543" t="n">
+        <v>-173042.7420347702</v>
+      </c>
+      <c r="H543" t="n">
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
+      <c r="L543" t="n">
+        <v>1</v>
+      </c>
+      <c r="M543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="n">
+        <v>651</v>
+      </c>
+      <c r="C544" t="n">
+        <v>652</v>
+      </c>
+      <c r="D544" t="n">
+        <v>652.8</v>
+      </c>
+      <c r="E544" t="n">
+        <v>649.9</v>
+      </c>
+      <c r="F544" t="n">
+        <v>6357.1463</v>
+      </c>
+      <c r="G544" t="n">
+        <v>-179399.8883347702</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
+      <c r="L544" t="n">
+        <v>1</v>
+      </c>
+      <c r="M544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="n">
+        <v>652</v>
+      </c>
+      <c r="C545" t="n">
+        <v>642</v>
+      </c>
+      <c r="D545" t="n">
+        <v>652</v>
+      </c>
+      <c r="E545" t="n">
+        <v>642</v>
+      </c>
+      <c r="F545" t="n">
+        <v>20409.1009</v>
+      </c>
+      <c r="G545" t="n">
+        <v>-199808.9892347702</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
+      <c r="L545" t="n">
+        <v>1</v>
+      </c>
+      <c r="M545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="n">
+        <v>642</v>
+      </c>
+      <c r="C546" t="n">
+        <v>648.8</v>
+      </c>
+      <c r="D546" t="n">
+        <v>649</v>
+      </c>
+      <c r="E546" t="n">
+        <v>640.3</v>
+      </c>
+      <c r="F546" t="n">
+        <v>4591.095</v>
+      </c>
+      <c r="G546" t="n">
+        <v>-195217.8942347702</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="n">
+        <v>1</v>
+      </c>
+      <c r="M546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="n">
+        <v>644</v>
+      </c>
+      <c r="C547" t="n">
+        <v>646.5</v>
+      </c>
+      <c r="D547" t="n">
+        <v>649.9</v>
+      </c>
+      <c r="E547" t="n">
+        <v>636.2</v>
+      </c>
+      <c r="F547" t="n">
+        <v>19600.9062</v>
+      </c>
+      <c r="G547" t="n">
+        <v>-214818.8004347701</v>
+      </c>
+      <c r="H547" t="n">
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
+      <c r="L547" t="n">
+        <v>1</v>
+      </c>
+      <c r="M547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="n">
+        <v>643.9</v>
+      </c>
+      <c r="C548" t="n">
+        <v>643.9</v>
+      </c>
+      <c r="D548" t="n">
+        <v>643.9</v>
+      </c>
+      <c r="E548" t="n">
+        <v>643.9</v>
+      </c>
+      <c r="F548" t="n">
+        <v>520</v>
+      </c>
+      <c r="G548" t="n">
+        <v>-215338.8004347701</v>
+      </c>
+      <c r="H548" t="n">
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
+      <c r="L548" t="n">
+        <v>1</v>
+      </c>
+      <c r="M548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="n">
+        <v>643.9</v>
+      </c>
+      <c r="C549" t="n">
+        <v>642.8</v>
+      </c>
+      <c r="D549" t="n">
+        <v>643.9</v>
+      </c>
+      <c r="E549" t="n">
+        <v>640.6</v>
+      </c>
+      <c r="F549" t="n">
+        <v>4998.1344</v>
+      </c>
+      <c r="G549" t="n">
+        <v>-220336.9348347702</v>
+      </c>
+      <c r="H549" t="n">
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
+      <c r="L549" t="n">
+        <v>1</v>
+      </c>
+      <c r="M549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="n">
+        <v>643.8</v>
+      </c>
+      <c r="C550" t="n">
+        <v>643.8</v>
+      </c>
+      <c r="D550" t="n">
+        <v>643.8</v>
+      </c>
+      <c r="E550" t="n">
+        <v>640.8</v>
+      </c>
+      <c r="F550" t="n">
+        <v>1993.0268</v>
+      </c>
+      <c r="G550" t="n">
+        <v>-218343.9080347702</v>
+      </c>
+      <c r="H550" t="n">
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
+      <c r="L550" t="n">
+        <v>1</v>
+      </c>
+      <c r="M550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="n">
+        <v>643.8</v>
+      </c>
+      <c r="C551" t="n">
+        <v>643.8</v>
+      </c>
+      <c r="D551" t="n">
+        <v>643.8</v>
+      </c>
+      <c r="E551" t="n">
+        <v>643.8</v>
+      </c>
+      <c r="F551" t="n">
+        <v>567.9854</v>
+      </c>
+      <c r="G551" t="n">
+        <v>-218343.9080347702</v>
+      </c>
+      <c r="H551" t="n">
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="n">
+        <v>1</v>
+      </c>
+      <c r="M551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="n">
+        <v>644</v>
+      </c>
+      <c r="C552" t="n">
+        <v>645</v>
+      </c>
+      <c r="D552" t="n">
+        <v>645</v>
+      </c>
+      <c r="E552" t="n">
+        <v>644</v>
+      </c>
+      <c r="F552" t="n">
+        <v>5178.1488</v>
+      </c>
+      <c r="G552" t="n">
+        <v>-213165.7592347702</v>
+      </c>
+      <c r="H552" t="n">
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>643.8</v>
+      </c>
+      <c r="J552" t="n">
+        <v>643.8</v>
+      </c>
+      <c r="K552" t="inlineStr"/>
+      <c r="L552" t="n">
+        <v>1</v>
+      </c>
+      <c r="M552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="n">
+        <v>646</v>
+      </c>
+      <c r="C553" t="n">
+        <v>645</v>
+      </c>
+      <c r="D553" t="n">
+        <v>646</v>
+      </c>
+      <c r="E553" t="n">
+        <v>645</v>
+      </c>
+      <c r="F553" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G553" t="n">
+        <v>-213165.7592347702</v>
+      </c>
+      <c r="H553" t="n">
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>645</v>
+      </c>
+      <c r="J553" t="n">
+        <v>643.8</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L553" t="n">
+        <v>1</v>
+      </c>
+      <c r="M553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="n">
+        <v>645</v>
+      </c>
+      <c r="C554" t="n">
+        <v>645</v>
+      </c>
+      <c r="D554" t="n">
+        <v>645</v>
+      </c>
+      <c r="E554" t="n">
+        <v>645</v>
+      </c>
+      <c r="F554" t="n">
+        <v>342.4185</v>
+      </c>
+      <c r="G554" t="n">
+        <v>-213165.7592347702</v>
+      </c>
+      <c r="H554" t="n">
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>645</v>
+      </c>
+      <c r="J554" t="n">
+        <v>643.8</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L554" t="n">
+        <v>1</v>
+      </c>
+      <c r="M554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" t="n">
+        <v>645</v>
+      </c>
+      <c r="C555" t="n">
+        <v>642.9</v>
+      </c>
+      <c r="D555" t="n">
+        <v>645</v>
+      </c>
+      <c r="E555" t="n">
+        <v>642.9</v>
+      </c>
+      <c r="F555" t="n">
+        <v>3024</v>
+      </c>
+      <c r="G555" t="n">
+        <v>-216189.7592347702</v>
+      </c>
+      <c r="H555" t="n">
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>645</v>
+      </c>
+      <c r="J555" t="n">
+        <v>643.8</v>
+      </c>
+      <c r="K555" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L542" t="n">
-        <v>1</v>
-      </c>
-      <c r="M542" t="inlineStr"/>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="B543" t="n">
-        <v>654.4</v>
-      </c>
-      <c r="C543" t="n">
-        <v>652.9</v>
-      </c>
-      <c r="D543" t="n">
-        <v>654.4</v>
-      </c>
-      <c r="E543" t="n">
-        <v>652.9</v>
-      </c>
-      <c r="F543" t="n">
-        <v>1280</v>
-      </c>
-      <c r="G543" t="n">
-        <v>-173042.7420347702</v>
-      </c>
-      <c r="H543" t="n">
-        <v>1</v>
-      </c>
-      <c r="I543" t="n">
-        <v>652.2</v>
-      </c>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L543" t="n">
-        <v>1</v>
-      </c>
-      <c r="M543" t="inlineStr"/>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
-        <v>542</v>
-      </c>
-      <c r="B544" t="n">
-        <v>651</v>
-      </c>
-      <c r="C544" t="n">
-        <v>652</v>
-      </c>
-      <c r="D544" t="n">
-        <v>652.8</v>
-      </c>
-      <c r="E544" t="n">
-        <v>649.9</v>
-      </c>
-      <c r="F544" t="n">
-        <v>6357.1463</v>
-      </c>
-      <c r="G544" t="n">
-        <v>-179399.8883347702</v>
-      </c>
-      <c r="H544" t="n">
-        <v>1</v>
-      </c>
-      <c r="I544" t="n">
-        <v>652.9</v>
-      </c>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L544" t="n">
-        <v>1</v>
-      </c>
-      <c r="M544" t="inlineStr"/>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
-        <v>543</v>
-      </c>
-      <c r="B545" t="n">
-        <v>652</v>
-      </c>
-      <c r="C545" t="n">
-        <v>642</v>
-      </c>
-      <c r="D545" t="n">
-        <v>652</v>
-      </c>
-      <c r="E545" t="n">
-        <v>642</v>
-      </c>
-      <c r="F545" t="n">
-        <v>20409.1009</v>
-      </c>
-      <c r="G545" t="n">
-        <v>-199808.9892347702</v>
-      </c>
-      <c r="H545" t="n">
-        <v>1</v>
-      </c>
-      <c r="I545" t="n">
-        <v>652</v>
-      </c>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L545" t="n">
-        <v>1</v>
-      </c>
-      <c r="M545" t="inlineStr"/>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
-        <v>544</v>
-      </c>
-      <c r="B546" t="n">
-        <v>642</v>
-      </c>
-      <c r="C546" t="n">
-        <v>648.8</v>
-      </c>
-      <c r="D546" t="n">
-        <v>649</v>
-      </c>
-      <c r="E546" t="n">
-        <v>640.3</v>
-      </c>
-      <c r="F546" t="n">
-        <v>4591.095</v>
-      </c>
-      <c r="G546" t="n">
-        <v>-195217.8942347702</v>
-      </c>
-      <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L546" t="n">
-        <v>1</v>
-      </c>
-      <c r="M546" t="inlineStr"/>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
-        <v>545</v>
-      </c>
-      <c r="B547" t="n">
-        <v>644</v>
-      </c>
-      <c r="C547" t="n">
-        <v>646.5</v>
-      </c>
-      <c r="D547" t="n">
-        <v>649.9</v>
-      </c>
-      <c r="E547" t="n">
-        <v>636.2</v>
-      </c>
-      <c r="F547" t="n">
-        <v>19600.9062</v>
-      </c>
-      <c r="G547" t="n">
-        <v>-214818.8004347701</v>
-      </c>
-      <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>648.8</v>
-      </c>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L547" t="n">
-        <v>1</v>
-      </c>
-      <c r="M547" t="inlineStr"/>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
-        <v>546</v>
-      </c>
-      <c r="B548" t="n">
-        <v>643.9</v>
-      </c>
-      <c r="C548" t="n">
-        <v>643.9</v>
-      </c>
-      <c r="D548" t="n">
-        <v>643.9</v>
-      </c>
-      <c r="E548" t="n">
-        <v>643.9</v>
-      </c>
-      <c r="F548" t="n">
-        <v>520</v>
-      </c>
-      <c r="G548" t="n">
-        <v>-215338.8004347701</v>
-      </c>
-      <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>646.5</v>
-      </c>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L548" t="n">
-        <v>1</v>
-      </c>
-      <c r="M548" t="inlineStr"/>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
-        <v>547</v>
-      </c>
-      <c r="B549" t="n">
-        <v>643.9</v>
-      </c>
-      <c r="C549" t="n">
-        <v>642.8</v>
-      </c>
-      <c r="D549" t="n">
-        <v>643.9</v>
-      </c>
-      <c r="E549" t="n">
-        <v>640.6</v>
-      </c>
-      <c r="F549" t="n">
-        <v>4998.1344</v>
-      </c>
-      <c r="G549" t="n">
-        <v>-220336.9348347702</v>
-      </c>
-      <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>643.9</v>
-      </c>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L549" t="n">
-        <v>1</v>
-      </c>
-      <c r="M549" t="inlineStr"/>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="B550" t="n">
-        <v>643.8</v>
-      </c>
-      <c r="C550" t="n">
-        <v>643.8</v>
-      </c>
-      <c r="D550" t="n">
-        <v>643.8</v>
-      </c>
-      <c r="E550" t="n">
-        <v>640.8</v>
-      </c>
-      <c r="F550" t="n">
-        <v>1993.0268</v>
-      </c>
-      <c r="G550" t="n">
-        <v>-218343.9080347702</v>
-      </c>
-      <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>642.8</v>
-      </c>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L550" t="n">
-        <v>1</v>
-      </c>
-      <c r="M550" t="inlineStr"/>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="B551" t="n">
-        <v>643.8</v>
-      </c>
-      <c r="C551" t="n">
-        <v>643.8</v>
-      </c>
-      <c r="D551" t="n">
-        <v>643.8</v>
-      </c>
-      <c r="E551" t="n">
-        <v>643.8</v>
-      </c>
-      <c r="F551" t="n">
-        <v>567.9854</v>
-      </c>
-      <c r="G551" t="n">
-        <v>-218343.9080347702</v>
-      </c>
-      <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>643.8</v>
-      </c>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L551" t="n">
-        <v>1</v>
-      </c>
-      <c r="M551" t="inlineStr"/>
-    </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="B552" t="n">
-        <v>644</v>
-      </c>
-      <c r="C552" t="n">
-        <v>645</v>
-      </c>
-      <c r="D552" t="n">
-        <v>645</v>
-      </c>
-      <c r="E552" t="n">
-        <v>644</v>
-      </c>
-      <c r="F552" t="n">
-        <v>5178.1488</v>
-      </c>
-      <c r="G552" t="n">
-        <v>-213165.7592347702</v>
-      </c>
-      <c r="H552" t="n">
-        <v>1</v>
-      </c>
-      <c r="I552" t="n">
-        <v>643.8</v>
-      </c>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L552" t="n">
-        <v>1</v>
-      </c>
-      <c r="M552" t="inlineStr"/>
-    </row>
-    <row r="553">
-      <c r="A553" s="1" t="n">
-        <v>551</v>
-      </c>
-      <c r="B553" t="n">
-        <v>646</v>
-      </c>
-      <c r="C553" t="n">
-        <v>645</v>
-      </c>
-      <c r="D553" t="n">
-        <v>646</v>
-      </c>
-      <c r="E553" t="n">
-        <v>645</v>
-      </c>
-      <c r="F553" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G553" t="n">
-        <v>-213165.7592347702</v>
-      </c>
-      <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>645</v>
-      </c>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L553" t="n">
-        <v>1</v>
-      </c>
-      <c r="M553" t="inlineStr"/>
-    </row>
-    <row r="554">
-      <c r="A554" s="1" t="n">
-        <v>552</v>
-      </c>
-      <c r="B554" t="n">
-        <v>645</v>
-      </c>
-      <c r="C554" t="n">
-        <v>645</v>
-      </c>
-      <c r="D554" t="n">
-        <v>645</v>
-      </c>
-      <c r="E554" t="n">
-        <v>645</v>
-      </c>
-      <c r="F554" t="n">
-        <v>342.4185</v>
-      </c>
-      <c r="G554" t="n">
-        <v>-213165.7592347702</v>
-      </c>
-      <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>645</v>
-      </c>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L554" t="n">
-        <v>1</v>
-      </c>
-      <c r="M554" t="inlineStr"/>
-    </row>
-    <row r="555">
-      <c r="A555" s="1" t="n">
-        <v>553</v>
-      </c>
-      <c r="B555" t="n">
-        <v>645</v>
-      </c>
-      <c r="C555" t="n">
-        <v>642.9</v>
-      </c>
-      <c r="D555" t="n">
-        <v>645</v>
-      </c>
-      <c r="E555" t="n">
-        <v>642.9</v>
-      </c>
-      <c r="F555" t="n">
-        <v>3024</v>
-      </c>
-      <c r="G555" t="n">
-        <v>-216189.7592347702</v>
-      </c>
-      <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>645</v>
-      </c>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18820,7 +18766,9 @@
       <c r="I556" t="n">
         <v>642.9</v>
       </c>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>643.8</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18857,7 +18805,9 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>643.8</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18894,7 +18844,9 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>643.8</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18931,7 +18883,9 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>643.8</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18968,7 +18922,9 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>643.8</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19005,7 +18961,9 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>643.8</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19042,7 +19000,9 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>643.8</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19079,7 +19039,9 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>643.8</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19116,7 +19078,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>643.8</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19153,7 +19117,9 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>643.8</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19190,7 +19156,9 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>643.8</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19227,7 +19195,9 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>643.8</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19264,7 +19234,9 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>643.8</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
